--- a/Annexes/Wettbewerber.xlsx
+++ b/Annexes/Wettbewerber.xlsx
@@ -5,21 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanhollet/Desktop/ManagementS4/Annexes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5FFBE722-7303-D74C-9303-9DBB47B33B2B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D53D2167-4E2C-334B-8707-CEA980FA8282}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7258C7D2-2AC8-AB4F-9383-702A5206F127}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{7258C7D2-2AC8-AB4F-9383-702A5206F127}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$D$3:$D$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$I$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$I$3:$I$10</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Wettbewerber</t>
   </si>
@@ -93,9 +88,6 @@
   </si>
   <si>
     <t>Porsche</t>
-  </si>
-  <si>
-    <t>mittel breit</t>
   </si>
 </sst>
 </file>
@@ -104,7 +96,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;€&quot;_ ;_ * \(#,##0.00\)\ &quot;€&quot;_ ;_ * &quot;-&quot;??_)\ &quot;€&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -329,16 +321,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1703,7 +1695,7 @@
   <dimension ref="D2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1870,7 +1862,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
